--- a/results/LGBMClassifier_tpesearch-train_df.xlsx
+++ b/results/LGBMClassifier_tpesearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7884615384615385</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7592764378478665</v>
+        <v>0.719472710453284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7674641148325358</v>
+        <v>0.7270334928229665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7600844277673546</v>
+        <v>0.7177871148459384</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7734354738963033</v>
+        <v>0.7357484607044452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7652716415501625</v>
+        <v>0.722779434354387</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.6506024096385543</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6701680672268908</v>
+        <v>0.6854166666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6744019138755981</v>
+        <v>0.6916267942583731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6709905660377358</v>
+        <v>0.684524505790151</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6838649438269933</v>
+        <v>0.7010304659498209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6793974437005478</v>
+        <v>0.690725319065174</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.62</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7567567567567567</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.8392857142857144</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7286046511627907</v>
+        <v>0.8011695906432749</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7351674641148325</v>
+        <v>0.7956937799043062</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7196196660482375</v>
+        <v>0.7980212355212355</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7484571142785698</v>
+        <v>0.8054455134251399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7223751670756279</v>
+        <v>0.8055642047577533</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8024118738404453</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8119617224880382</v>
+        <v>0.6866028708133971</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8037054409005628</v>
+        <v>0.6755813953488372</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8161469866538991</v>
+        <v>0.6983273596176822</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8079495249046783</v>
+        <v>0.6800450112528132</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/LGBMClassifier_tpesearch-train_df.xlsx
+++ b/results/LGBMClassifier_tpesearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6304347826086957</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.9019607843137256</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.719472710453284</v>
+        <v>0.8964622641509434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7270334928229665</v>
+        <v>0.8898423005565863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7177871148459384</v>
+        <v>0.8914565826330533</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7357484607044452</v>
+        <v>0.8949279772773382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.722779434354387</v>
+        <v>0.8920213246588958</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6506024096385543</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7184466019417476</v>
+        <v>0.7391304347826088</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6854166666666667</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6916267942583731</v>
+        <v>0.7435064935064934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.684524505790151</v>
+        <v>0.7419056429232193</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7010304659498209</v>
+        <v>0.7449223416965354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.690725319065174</v>
+        <v>0.7420548476619618</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6419753086419753</v>
+        <v>0.8958333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.76</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7238095238095238</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6823255813953488</v>
+        <v>0.8922294172062905</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6875598086124401</v>
+        <v>0.8933209647495362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6828924162257495</v>
+        <v>0.8923611111111112</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.696524131032758</v>
+        <v>0.8934479225726876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6903718875045041</v>
+        <v>0.8925477897252091</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7567567567567567</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8392857142857144</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8011695906432749</v>
+        <v>0.7980055658627088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7956937799043062</v>
+        <v>0.7980055658627088</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7980212355212355</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8054455134251399</v>
+        <v>0.8003122069942346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8055642047577533</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.96</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.956989247311828</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.9586834733893557</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6866028708133971</v>
+        <v>0.9557050092764379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6755813953488372</v>
+        <v>0.9567441860465116</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6983273596176822</v>
+        <v>0.957742236679618</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6800450112528132</v>
+        <v>0.9569192298074519</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
